--- a/getaso/asodata/201608.xlsx
+++ b/getaso/asodata/201608.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
-    <sheet name="2016-08-30-09" sheetId="2" r:id="rId5"/>
+    <sheet name="2016-08-30-16" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>关键词</t>
   </si>
@@ -33,6 +33,9 @@
     <t>兼职</t>
   </si>
   <si>
+    <t>上升1</t>
+  </si>
+  <si>
     <t>斗米兼职</t>
   </si>
   <si>
@@ -54,9 +57,15 @@
     <t>兼职赚钱</t>
   </si>
   <si>
+    <t>下降1</t>
+  </si>
+  <si>
     <t>手机兼职</t>
   </si>
   <si>
+    <t>下降5</t>
+  </si>
+  <si>
     <t>找工作软件</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
     <t>实习</t>
   </si>
   <si>
-    <t>上升1</t>
-  </si>
-  <si>
     <t>在家兼职</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>学生赚钱</t>
   </si>
   <si>
+    <t>下降2</t>
+  </si>
+  <si>
     <t>暑假兼职</t>
   </si>
   <si>
@@ -153,6 +162,9 @@
     <t>兼职猫</t>
   </si>
   <si>
+    <t>下降3</t>
+  </si>
+  <si>
     <t>兼职达人</t>
   </si>
   <si>
@@ -165,6 +177,9 @@
     <t>靠谱兼职</t>
   </si>
   <si>
+    <t>下降6</t>
+  </si>
+  <si>
     <t>在线兼职</t>
   </si>
   <si>
@@ -225,9 +240,6 @@
     <t>能赚钱的软件</t>
   </si>
   <si>
-    <t>下降1</t>
-  </si>
-  <si>
     <t>兼职圈</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>手机赚钱</t>
   </si>
   <si>
+    <t>下降7</t>
+  </si>
+  <si>
     <t>手机免费赚钱</t>
   </si>
   <si>
@@ -261,12 +276,21 @@
     <t>赚钱</t>
   </si>
   <si>
+    <t>上升43</t>
+  </si>
+  <si>
     <t>赚钱软件</t>
   </si>
   <si>
+    <t>上升16</t>
+  </si>
+  <si>
     <t>赚钱神器</t>
   </si>
   <si>
+    <t>上升4</t>
+  </si>
+  <si>
     <t>挣钱</t>
   </si>
   <si>
@@ -282,9 +306,15 @@
     <t>58app</t>
   </si>
   <si>
+    <t>上升2</t>
+  </si>
+  <si>
     <t>58兼职</t>
   </si>
   <si>
+    <t>58同城</t>
+  </si>
+  <si>
     <t>五八同城</t>
   </si>
   <si>
@@ -297,6 +327,9 @@
     <t>附近找工作</t>
   </si>
   <si>
+    <t>下降4</t>
+  </si>
+  <si>
     <t>附近工作</t>
   </si>
   <si>
@@ -334,6 +367,9 @@
   </si>
   <si>
     <t>上海招聘</t>
+  </si>
+  <si>
+    <t>下降31</t>
   </si>
   <si>
     <t>求职招聘</t>
@@ -721,7 +757,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="D1" sqref="D1"/>
@@ -751,15 +787,15 @@
         <v>4619</v>
       </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>4605</v>
@@ -773,7 +809,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>4605</v>
@@ -787,7 +823,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4605</v>
@@ -801,7 +837,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -815,7 +851,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>4605</v>
@@ -829,7 +865,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>4605</v>
@@ -843,63 +879,63 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>4609</v>
       </c>
       <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>4605</v>
       </c>
       <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>4605</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>13</v>
-      </c>
-      <c r="B11">
-        <v>4605</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>4842</v>
       </c>
       <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>4605</v>
@@ -913,7 +949,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>4605</v>
@@ -927,7 +963,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>4605</v>
@@ -941,7 +977,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>4605</v>
@@ -955,35 +991,35 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>4605</v>
       </c>
       <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>4605</v>
       </c>
       <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>4605</v>
@@ -997,63 +1033,63 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>4605</v>
       </c>
       <c r="C20">
-        <v>16</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>4605</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>4605</v>
       </c>
       <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>4605</v>
       </c>
       <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1067,7 +1103,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>4605</v>
@@ -1081,7 +1117,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1095,7 +1131,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>4605</v>
@@ -1109,7 +1145,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>4605</v>
@@ -1118,12 +1154,12 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1137,7 +1173,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1151,7 +1187,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1165,7 +1201,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1179,7 +1215,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1193,7 +1229,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1207,7 +1243,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1221,7 +1257,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1235,7 +1271,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1249,7 +1285,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1263,7 +1299,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1277,35 +1313,35 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
         <v>4605</v>
       </c>
       <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>4605</v>
       </c>
       <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1319,7 +1355,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>4605</v>
@@ -1333,21 +1369,21 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1361,7 +1397,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B46">
         <v>53</v>
@@ -1375,7 +1411,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1389,7 +1425,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1403,7 +1439,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1417,7 +1453,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1431,7 +1467,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1445,63 +1481,63 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>4605</v>
       </c>
       <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B53">
         <v>4605</v>
       </c>
       <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B54">
         <v>4605</v>
       </c>
       <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B55">
         <v>4605</v>
       </c>
       <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1515,7 +1551,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>4605</v>
@@ -1529,49 +1565,49 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B59">
         <v>4605</v>
       </c>
       <c r="C59">
-        <v>3</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>4605</v>
       </c>
       <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1585,7 +1621,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1599,7 +1635,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1613,21 +1649,21 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
       <c r="C64">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D64" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1641,7 +1677,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>180</v>
@@ -1655,7 +1691,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1669,7 +1705,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1683,35 +1719,35 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B69">
         <v>4605</v>
       </c>
       <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B70">
         <v>4605</v>
       </c>
       <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="D70" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1725,21 +1761,21 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
       <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -1753,7 +1789,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1767,91 +1803,91 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>4619</v>
       </c>
       <c r="C75">
-        <v>124</v>
-      </c>
-      <c r="D75">
-        <v>0</v>
+        <v>81</v>
+      </c>
+      <c r="D75" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B76">
         <v>8326</v>
       </c>
       <c r="C76">
-        <v>35</v>
-      </c>
-      <c r="D76">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="D76" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B77">
         <v>6920</v>
       </c>
       <c r="C77">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B78">
         <v>4606</v>
       </c>
       <c r="C78">
-        <v>17</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B79">
         <v>4605</v>
       </c>
       <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B80">
         <v>4605</v>
       </c>
       <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
         <v>5</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1865,69 +1901,69 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B82">
         <v>4605</v>
       </c>
       <c r="C82">
-        <v>10</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B83">
         <v>0</v>
       </c>
       <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B84">
-        <v>4607</v>
+        <v>6623</v>
       </c>
       <c r="C84">
-        <v>16</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B85">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="C85">
-        <v>7</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D85" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>4605</v>
       </c>
       <c r="C86">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -1935,13 +1971,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -1949,7 +1985,7 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -1957,19 +1993,19 @@
       <c r="C88">
         <v>5</v>
       </c>
-      <c r="D88">
-        <v>0</v>
+      <c r="D88" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B89">
-        <v>4618</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -1977,52 +2013,52 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B90">
-        <v>7128</v>
+        <v>4618</v>
       </c>
       <c r="C90">
         <v>6</v>
       </c>
-      <c r="D90">
-        <v>0</v>
+      <c r="D90" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B91">
-        <v>4605</v>
+        <v>7128</v>
       </c>
       <c r="C91">
-        <v>4</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>4605</v>
       </c>
       <c r="C92">
-        <v>6</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93">
         <v>6</v>
@@ -2033,13 +2069,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2047,41 +2083,41 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B95">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>65</v>
-      </c>
-      <c r="D95" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B96">
-        <v>4741</v>
+        <v>169</v>
       </c>
       <c r="C96">
-        <v>10</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B97">
-        <v>4996</v>
+        <v>4741</v>
       </c>
       <c r="C97">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2089,35 +2125,35 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B98">
-        <v>4605</v>
+        <v>4996</v>
       </c>
       <c r="C98">
-        <v>24</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>4605</v>
       </c>
       <c r="C99">
-        <v>1</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2131,30 +2167,44 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B101">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>7</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="D101" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C102">
-        <v>58</v>
-      </c>
-      <c r="D102" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>57</v>
+      </c>
+      <c r="D103" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
